--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Notification_Ruby.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Notification_Ruby.xlsx
@@ -115,22 +115,6 @@
 validate1;
 link_Click(notification_test_link);
 validate2;
-SelectTestToRun(VT200_0681_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-CheckUITextContains(This_is_a_pop_up_for_hide);
-wait(10);
-TakeScreenshot(VT200_0681_afterhide);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
 SelectTestToRun(VT200_0682_string);
 ClickRunTest(runtest_top_xpath);
 wait(2);
@@ -199,24 +183,6 @@
 validate3
 {
 validate_Text_Exists=VT200-0679
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual Compliance Ruby Specs
-};
-validate2
-{
-validate_PageTitle=Notification Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0681
-};
-validate5
-{
-validate_Screenshot=VT200_0681_afterhide
 };</t>
   </si>
   <si>
@@ -376,6 +342,34 @@
 CheckUITextContains(Test_Message);
 ClickUIButtonText(yes);
 validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual Compliance Ruby Specs
+};
+validate2
+{
+validate_PageTitle=Notification Ruby Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0681
+};</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0681_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+CheckUITextContains(This_is_a_pop_up_for_hide);
+wait(10);
+CheckUITextContains(hidepopup);</t>
   </si>
 </sst>
 </file>
@@ -859,7 +853,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
@@ -929,7 +923,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>11</v>
@@ -937,7 +931,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="204.75" thickBot="1">
+    <row r="3" spans="1:11" ht="153.75" thickBot="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -955,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -982,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1009,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1036,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -1063,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1090,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1118,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1142,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
